--- a/prix/motip-spray.xlsx
+++ b/prix/motip-spray.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFD757-C4C2-4739-9DAB-164F19083B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61249AC-DD2E-4D92-B234-31E5D71318AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="775">
   <si>
     <t>path</t>
   </si>
@@ -1745,453 +1746,6 @@
     <t>Fluo</t>
   </si>
   <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>3020</t>
-  </si>
-  <si>
-    <t>4003</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>5010</t>
-  </si>
-  <si>
-    <t>5015</t>
-  </si>
-  <si>
-    <t>5018</t>
-  </si>
-  <si>
-    <t>6002</t>
-  </si>
-  <si>
-    <t>6005</t>
-  </si>
-  <si>
-    <t>6018</t>
-  </si>
-  <si>
-    <t>6029</t>
-  </si>
-  <si>
-    <t>7001</t>
-  </si>
-  <si>
-    <t>7035</t>
-  </si>
-  <si>
-    <t>8011</t>
-  </si>
-  <si>
-    <t>8017</t>
-  </si>
-  <si>
-    <t>9001</t>
-  </si>
-  <si>
-    <t>9005</t>
-  </si>
-  <si>
-    <t>Mat</t>
-  </si>
-  <si>
-    <t>9006</t>
-  </si>
-  <si>
-    <t>9010</t>
-  </si>
-  <si>
-    <t>Vert</t>
-  </si>
-  <si>
-    <t>Anthracite</t>
-  </si>
-  <si>
-    <t>Noir</t>
-  </si>
-  <si>
-    <t>Argent</t>
-  </si>
-  <si>
-    <t>Antique</t>
-  </si>
-  <si>
-    <t>Cuivre</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Rouge</t>
-  </si>
-  <si>
-    <t>Violet</t>
-  </si>
-  <si>
-    <t>Bleu</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>08018</t>
-  </si>
-  <si>
-    <t>08016</t>
-  </si>
-  <si>
-    <t>08009</t>
-  </si>
-  <si>
-    <t>08008</t>
-  </si>
-  <si>
-    <t>08015</t>
-  </si>
-  <si>
-    <t>08014</t>
-  </si>
-  <si>
-    <t>08000</t>
-  </si>
-  <si>
-    <t>08003</t>
-  </si>
-  <si>
-    <t>08001</t>
-  </si>
-  <si>
-    <t>08006</t>
-  </si>
-  <si>
-    <t>08022</t>
-  </si>
-  <si>
-    <t>08029</t>
-  </si>
-  <si>
-    <t>08002</t>
-  </si>
-  <si>
-    <t>08021</t>
-  </si>
-  <si>
-    <t>08010</t>
-  </si>
-  <si>
-    <t>08005</t>
-  </si>
-  <si>
-    <t>08004</t>
-  </si>
-  <si>
-    <t>08030</t>
-  </si>
-  <si>
-    <t>08033</t>
-  </si>
-  <si>
-    <t>08034</t>
-  </si>
-  <si>
-    <t>08019</t>
-  </si>
-  <si>
-    <t>08032</t>
-  </si>
-  <si>
-    <t>08020</t>
-  </si>
-  <si>
-    <t>08031</t>
-  </si>
-  <si>
-    <t>08007</t>
-  </si>
-  <si>
-    <t>08013</t>
-  </si>
-  <si>
-    <t>08024</t>
-  </si>
-  <si>
-    <t>08035</t>
-  </si>
-  <si>
-    <t>08023</t>
-  </si>
-  <si>
-    <t>08012</t>
-  </si>
-  <si>
-    <t>08011</t>
-  </si>
-  <si>
-    <t>08025</t>
-  </si>
-  <si>
-    <t>08027</t>
-  </si>
-  <si>
-    <t>08028</t>
-  </si>
-  <si>
-    <t>08026</t>
-  </si>
-  <si>
-    <t>08102</t>
-  </si>
-  <si>
-    <t>08103</t>
-  </si>
-  <si>
-    <t>08104</t>
-  </si>
-  <si>
-    <t>08210</t>
-  </si>
-  <si>
-    <t>08208</t>
-  </si>
-  <si>
-    <t>08107</t>
-  </si>
-  <si>
-    <t>08106</t>
-  </si>
-  <si>
-    <t>08036</t>
-  </si>
-  <si>
-    <t>08205</t>
-  </si>
-  <si>
-    <t>08037</t>
-  </si>
-  <si>
-    <t>08200</t>
-  </si>
-  <si>
-    <t>08201</t>
-  </si>
-  <si>
-    <t>08202</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>4006</t>
-  </si>
-  <si>
-    <t>5005</t>
-  </si>
-  <si>
-    <t>5009</t>
-  </si>
-  <si>
-    <t>5011</t>
-  </si>
-  <si>
-    <t>5012</t>
-  </si>
-  <si>
-    <t>5013</t>
-  </si>
-  <si>
-    <t>5017</t>
-  </si>
-  <si>
-    <t>5019</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>6001</t>
-  </si>
-  <si>
-    <t>6009</t>
-  </si>
-  <si>
-    <t>6010</t>
-  </si>
-  <si>
-    <t>6011</t>
-  </si>
-  <si>
-    <t>6024</t>
-  </si>
-  <si>
-    <t>7005</t>
-  </si>
-  <si>
-    <t>7011</t>
-  </si>
-  <si>
-    <t>7012</t>
-  </si>
-  <si>
-    <t>7015</t>
-  </si>
-  <si>
-    <t>7021</t>
-  </si>
-  <si>
-    <t>7022</t>
-  </si>
-  <si>
-    <t>7024</t>
-  </si>
-  <si>
-    <t>7016</t>
-  </si>
-  <si>
-    <t>7030</t>
-  </si>
-  <si>
-    <t>7031</t>
-  </si>
-  <si>
-    <t>7032</t>
-  </si>
-  <si>
-    <t>7037</t>
-  </si>
-  <si>
-    <t>7038</t>
-  </si>
-  <si>
-    <t>7039</t>
-  </si>
-  <si>
-    <t>7040</t>
-  </si>
-  <si>
-    <t>7042</t>
-  </si>
-  <si>
-    <t>7043</t>
-  </si>
-  <si>
-    <t>7044</t>
-  </si>
-  <si>
-    <t>8019</t>
-  </si>
-  <si>
-    <t>9002</t>
-  </si>
-  <si>
-    <t>9003</t>
-  </si>
-  <si>
-    <t>9007</t>
-  </si>
-  <si>
-    <t>446382</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>5L</t>
-  </si>
-  <si>
-    <t>400Ml</t>
-  </si>
-  <si>
-    <t>50Ml</t>
-  </si>
-  <si>
-    <t>Jantes</t>
-  </si>
-  <si>
-    <t>Electro</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>Ptfe</t>
-  </si>
-  <si>
-    <t>Gris</t>
-  </si>
-  <si>
-    <t>5008</t>
-  </si>
-  <si>
     <t>9011</t>
   </si>
   <si>
@@ -2201,126 +1755,15 @@
     <t>9017</t>
   </si>
   <si>
-    <t>9005 Mat</t>
-  </si>
-  <si>
-    <t>9010 Mat</t>
-  </si>
-  <si>
-    <t>Or Antique</t>
-  </si>
-  <si>
-    <t>Or Bril.</t>
-  </si>
-  <si>
-    <t>Or Metal.</t>
-  </si>
-  <si>
-    <t>8105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08206</t>
-  </si>
-  <si>
-    <t>9005 Sat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 703072</t>
-  </si>
-  <si>
     <t>9010 Satin</t>
   </si>
   <si>
-    <t>Primer plastic</t>
-  </si>
-  <si>
-    <t>Fluor jaune</t>
-  </si>
-  <si>
-    <t>Fluor vert</t>
-  </si>
-  <si>
-    <t>Fluor orange</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver </t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>Argent brillant</t>
-  </si>
-  <si>
-    <t>Tableau + Aimant</t>
-  </si>
-  <si>
-    <t>Graffitis</t>
-  </si>
-  <si>
-    <t>Porcelaine</t>
-  </si>
-  <si>
-    <t>Gris clair</t>
-  </si>
-  <si>
-    <t>Blanc mat</t>
-  </si>
-  <si>
-    <t>Blanc brillant</t>
-  </si>
-  <si>
-    <t>Frigidaire blanc</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Blanc</t>
-  </si>
-  <si>
     <t>Brillant</t>
   </si>
   <si>
-    <t>Embout</t>
-  </si>
-  <si>
-    <t>Noir brillant</t>
-  </si>
-  <si>
-    <t>Noir mat</t>
-  </si>
-  <si>
-    <t>Noir satiné</t>
-  </si>
-  <si>
-    <t>04107</t>
-  </si>
-  <si>
-    <t>04106</t>
-  </si>
-  <si>
-    <t>04108</t>
-  </si>
-  <si>
-    <t>04005</t>
-  </si>
-  <si>
-    <t>brillant</t>
-  </si>
-  <si>
     <t>400ml</t>
   </si>
   <si>
-    <t>Gros foncé</t>
-  </si>
-  <si>
     <t>motip/carat-argent.png</t>
   </si>
   <si>
@@ -2336,9 +1779,6 @@
     <t>motip/carat-color.png</t>
   </si>
   <si>
-    <t>Rouge pourpre</t>
-  </si>
-  <si>
     <t>motip/carat-effet-paillettes-or.png</t>
   </si>
   <si>
@@ -2424,6 +1864,504 @@
   </si>
   <si>
     <t>motip/effect-primer-plastique.png</t>
+  </si>
+  <si>
+    <t>Satin easter yellow</t>
+  </si>
+  <si>
+    <t>Satin yellow grape</t>
+  </si>
+  <si>
+    <t>Satin beige</t>
+  </si>
+  <si>
+    <t>Sans fiche catalogue publique</t>
+  </si>
+  <si>
+    <t>Satin charly brown</t>
+  </si>
+  <si>
+    <t>Satin traffic blue</t>
+  </si>
+  <si>
+    <t>Satin blueberry violet</t>
+  </si>
+  <si>
+    <t>Satin true blue</t>
+  </si>
+  <si>
+    <t>Satin pure white</t>
+  </si>
+  <si>
+    <t>Satin papyrus white</t>
+  </si>
+  <si>
+    <t>Satin traffic purple</t>
+  </si>
+  <si>
+    <t>Satin stone</t>
+  </si>
+  <si>
+    <t>Satin lutecia green</t>
+  </si>
+  <si>
+    <t>Satin traffic orange</t>
+  </si>
+  <si>
+    <t>Satin choco brun</t>
+  </si>
+  <si>
+    <t>Satin silver grey</t>
+  </si>
+  <si>
+    <t>Spray de fixation</t>
+  </si>
+  <si>
+    <t>Carat sparkle silver</t>
+  </si>
+  <si>
+    <t>Vernis transp. bril.</t>
+  </si>
+  <si>
+    <t>Vernis transp. sat.</t>
+  </si>
+  <si>
+    <t>Vernis transp. mat</t>
+  </si>
+  <si>
+    <t>RAL 1023 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1021 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1015 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1003 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 2003 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 2000 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1028 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1001 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 3000 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 3003 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 3002 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 3005 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 3020 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 4003 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 4005 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5002 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5003 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5010 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5015 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5018 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6002 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6005 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6018 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6029 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7001 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7035 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 8011 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 8017 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9001 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9005 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9005 Mat 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9006 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9010 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9010 Mat 400 ml</t>
+  </si>
+  <si>
+    <t>Fluor vert 400 ml</t>
+  </si>
+  <si>
+    <t>Fluor jaune 400 ml</t>
+  </si>
+  <si>
+    <t>Fluor orange 400 ml</t>
+  </si>
+  <si>
+    <t>Anthracite 400 ml</t>
+  </si>
+  <si>
+    <t>Noir 400 ml</t>
+  </si>
+  <si>
+    <t>Argent 400 ml</t>
+  </si>
+  <si>
+    <t>Antique 400 ml</t>
+  </si>
+  <si>
+    <t>Cuivre 400 ml</t>
+  </si>
+  <si>
+    <t>Gold 400 ml</t>
+  </si>
+  <si>
+    <t>Chrome 400 ml</t>
+  </si>
+  <si>
+    <t>Rouge 400 ml</t>
+  </si>
+  <si>
+    <t>Vert 400 ml</t>
+  </si>
+  <si>
+    <t>Violet 400 ml</t>
+  </si>
+  <si>
+    <t>Bleu 400 ml</t>
+  </si>
+  <si>
+    <t>Or Antique 400 ml</t>
+  </si>
+  <si>
+    <t>Or 400 ml</t>
+  </si>
+  <si>
+    <t>Or Bril. 400 ml</t>
+  </si>
+  <si>
+    <t>Or Metal. 400 ml</t>
+  </si>
+  <si>
+    <t>Silver 400 ml</t>
+  </si>
+  <si>
+    <t>Aluminium 400 ml</t>
+  </si>
+  <si>
+    <t>Argent brillant 400 ml</t>
+  </si>
+  <si>
+    <t>Tableau + Aimant 400 ml</t>
+  </si>
+  <si>
+    <t>Graffitis 400 ml</t>
+  </si>
+  <si>
+    <t>Porcelaine 400 ml</t>
+  </si>
+  <si>
+    <t>Gris clair 400 ml</t>
+  </si>
+  <si>
+    <t>Blanc mat 400 ml</t>
+  </si>
+  <si>
+    <t>Blanc brillant 400 ml</t>
+  </si>
+  <si>
+    <t>Frigidaire blanc 400 ml</t>
+  </si>
+  <si>
+    <t>Zinc 400 ml</t>
+  </si>
+  <si>
+    <t>Gris 400 ml</t>
+  </si>
+  <si>
+    <t>Blanc 400 ml</t>
+  </si>
+  <si>
+    <t>Mat 400 ml</t>
+  </si>
+  <si>
+    <t>Brillant 400 ml</t>
+  </si>
+  <si>
+    <t>Embout 400 ml</t>
+  </si>
+  <si>
+    <t>Rouge pourpre 400 ml</t>
+  </si>
+  <si>
+    <t>Rouge signalisation 400 ml</t>
+  </si>
+  <si>
+    <t>Rouge feu 400 ml</t>
+  </si>
+  <si>
+    <t>Orange signalisation 400 ml</t>
+  </si>
+  <si>
+    <t>Satin easter yellow 400 ml</t>
+  </si>
+  <si>
+    <t>Satin yellow grape 400 ml</t>
+  </si>
+  <si>
+    <t>Satin beige 400 ml</t>
+  </si>
+  <si>
+    <t>Jaune paquee 400 ml</t>
+  </si>
+  <si>
+    <t>Vert clair 400 ml</t>
+  </si>
+  <si>
+    <t>Vert lemon 400 ml</t>
+  </si>
+  <si>
+    <t>vert lutece 400 ml</t>
+  </si>
+  <si>
+    <t>Satin charly brown 400 ml</t>
+  </si>
+  <si>
+    <t>Satin traffic blue 400 ml</t>
+  </si>
+  <si>
+    <t>Satin blueberry violet 400 ml</t>
+  </si>
+  <si>
+    <t>Satin true blue 400 ml</t>
+  </si>
+  <si>
+    <t>Satin pure white 400 ml</t>
+  </si>
+  <si>
+    <t>Satin papyrus white 400 ml</t>
+  </si>
+  <si>
+    <t>Satin traffic purple 400 ml</t>
+  </si>
+  <si>
+    <t>Satin stone 400 ml</t>
+  </si>
+  <si>
+    <t>Satin lutecia green 400 ml</t>
+  </si>
+  <si>
+    <t>Satin traffic orange 400 ml</t>
+  </si>
+  <si>
+    <t>Brun orange 400 ml</t>
+  </si>
+  <si>
+    <t>Satin choco brun 400 ml</t>
+  </si>
+  <si>
+    <t>Satin silver grey 400 ml</t>
+  </si>
+  <si>
+    <t>Spray de fixation 400 ml</t>
+  </si>
+  <si>
+    <t>Carat sparkle silver 400 ml</t>
+  </si>
+  <si>
+    <t>Vernis transp. bril. 400 ml</t>
+  </si>
+  <si>
+    <t>Vernis transp. sat. 400 ml</t>
+  </si>
+  <si>
+    <t>Vernis transp. mat 400 ml</t>
+  </si>
+  <si>
+    <t>Colle 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1004 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1007 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1013 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1014 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1016 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 1018 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 2002 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 2004 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 2009 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 3001 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 4006 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5005 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5009 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5011 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5012 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5013 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5017 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 5019 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6000 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6001 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6009 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6010 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6011 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 6024 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7005 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7011 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7012 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7015 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7021 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7022 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7024 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7016 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7030 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7031 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7032 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7037 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7038 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7039 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7040 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7042 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7043 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 7044 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 8019 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9002 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9003 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9005 Sat. 400 ml</t>
+  </si>
+  <si>
+    <t>RAL 9007 400 ml</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2458,6 +2396,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2861,15 +2805,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -2935,13 +2879,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="D4" s="11">
         <v>9.66</v>
@@ -2955,13 +2899,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="D5" s="11">
         <v>9.99</v>
@@ -2975,13 +2919,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="D6" s="11">
         <v>9.66</v>
@@ -2995,13 +2939,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>293</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="D7" s="11">
         <v>9.66</v>
@@ -3015,13 +2959,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>294</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>573</v>
+        <v>634</v>
       </c>
       <c r="D8" s="11">
         <v>10</v>
@@ -3035,13 +2979,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>295</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
       <c r="D9" s="11">
         <v>9.99</v>
@@ -3055,13 +2999,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>575</v>
+        <v>636</v>
       </c>
       <c r="D10" s="11">
         <v>9.66</v>
@@ -3075,13 +3019,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>576</v>
+        <v>637</v>
       </c>
       <c r="D11" s="11">
         <v>9.66</v>
@@ -3095,13 +3039,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="D12" s="11">
         <v>10.5</v>
@@ -3115,13 +3059,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="D13" s="11">
         <v>9.66</v>
@@ -3135,13 +3079,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>300</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="D14" s="11">
         <v>10.5</v>
@@ -3155,13 +3099,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>301</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>580</v>
+        <v>641</v>
       </c>
       <c r="D15" s="11">
         <v>9.66</v>
@@ -3175,13 +3119,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="D16" s="11">
         <v>10.5</v>
@@ -3195,13 +3139,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>303</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>582</v>
+        <v>643</v>
       </c>
       <c r="D17" s="11">
         <v>10</v>
@@ -3215,13 +3159,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>583</v>
+        <v>644</v>
       </c>
       <c r="D18" s="11">
         <v>9.66</v>
@@ -3235,13 +3179,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>305</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>584</v>
+        <v>645</v>
       </c>
       <c r="D19" s="11">
         <v>9.99</v>
@@ -3255,13 +3199,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>585</v>
+        <v>646</v>
       </c>
       <c r="D20" s="11">
         <v>10</v>
@@ -3275,13 +3219,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>307</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="D21" s="11">
         <v>9.99</v>
@@ -3295,13 +3239,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>587</v>
+        <v>648</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -3315,13 +3259,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>309</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>588</v>
+        <v>649</v>
       </c>
       <c r="D23" s="11">
         <v>9.66</v>
@@ -3335,13 +3279,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>310</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>589</v>
+        <v>650</v>
       </c>
       <c r="D24" s="11">
         <v>9.66</v>
@@ -3355,13 +3299,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>311</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>590</v>
+        <v>651</v>
       </c>
       <c r="D25" s="11">
         <v>9.66</v>
@@ -3375,13 +3319,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>312</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>591</v>
+        <v>652</v>
       </c>
       <c r="D26" s="11">
         <v>9.99</v>
@@ -3395,13 +3339,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>313</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>592</v>
+        <v>653</v>
       </c>
       <c r="D27" s="11">
         <v>9.99</v>
@@ -3415,13 +3359,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>314</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>593</v>
+        <v>654</v>
       </c>
       <c r="D28" s="11">
         <v>9.66</v>
@@ -3435,13 +3379,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>315</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="D29" s="11">
         <v>9.66</v>
@@ -3455,13 +3399,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>316</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>595</v>
+        <v>656</v>
       </c>
       <c r="D30" s="11">
         <v>10</v>
@@ -3475,13 +3419,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>317</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="D31" s="11">
         <v>10</v>
@@ -3495,13 +3439,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>318</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>597</v>
+        <v>658</v>
       </c>
       <c r="D32" s="11">
         <v>10</v>
@@ -3515,13 +3459,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>598</v>
+        <v>659</v>
       </c>
       <c r="D33" s="11">
         <v>9.99</v>
@@ -3535,13 +3479,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>320</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
       <c r="D34" s="11">
         <v>9.66</v>
@@ -3555,13 +3499,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>321</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="D35" s="11">
         <v>10</v>
@@ -3575,13 +3519,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>322</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="D36" s="11">
         <v>9.66</v>
@@ -3595,13 +3539,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>323</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>722</v>
+        <v>663</v>
       </c>
       <c r="D37" s="11">
         <v>9.66</v>
@@ -3615,13 +3559,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>795</v>
+        <v>608</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>731</v>
+        <v>574</v>
       </c>
       <c r="D38" s="11">
         <v>9.66</v>
@@ -3635,13 +3579,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>784</v>
+        <v>597</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>325</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>733</v>
+        <v>664</v>
       </c>
       <c r="D39" s="11">
         <v>16.47</v>
@@ -3655,13 +3599,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>784</v>
+        <v>597</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
       <c r="D40" s="11">
         <v>17.04</v>
@@ -3675,13 +3619,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>784</v>
+        <v>597</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>734</v>
+        <v>666</v>
       </c>
       <c r="D41" s="11">
         <v>16.47</v>
@@ -3695,13 +3639,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>791</v>
+        <v>604</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="D42" s="11">
         <v>17.04</v>
@@ -3715,13 +3659,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>791</v>
+        <v>604</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>329</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="D43" s="11">
         <v>17.88</v>
@@ -3735,13 +3679,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>791</v>
+        <v>604</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="D44" s="11">
         <v>17.04</v>
@@ -3755,13 +3699,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>776</v>
+        <v>589</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>331</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="D45" s="11">
         <v>17.04</v>
@@ -3775,13 +3719,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>777</v>
+        <v>590</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>332</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="D46" s="11">
         <v>17.04</v>
@@ -3795,13 +3739,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>778</v>
+        <v>591</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>333</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="D47" s="11">
         <v>16.47</v>
@@ -3815,13 +3759,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>781</v>
+        <v>594</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>334</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>735</v>
+        <v>673</v>
       </c>
       <c r="D48" s="11">
         <v>17.04</v>
@@ -3835,13 +3779,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>779</v>
+        <v>592</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="D49" s="11">
         <v>17.04</v>
@@ -3855,13 +3799,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>780</v>
+        <v>593</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="D50" s="11">
         <v>17.04</v>
@@ -3875,13 +3819,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>337</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="D51" s="11">
         <v>16.47</v>
@@ -3895,13 +3839,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="D52" s="11">
         <v>16.47</v>
@@ -3915,13 +3859,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>339</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="D53" s="11">
         <v>16.47</v>
@@ -3935,13 +3879,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>340</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
       <c r="D54" s="11">
         <v>16.47</v>
@@ -3955,13 +3899,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>341</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
       <c r="D55" s="11">
         <v>17.04</v>
@@ -3975,13 +3919,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>342</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>723</v>
+        <v>678</v>
       </c>
       <c r="D56" s="11">
         <v>16.47</v>
@@ -3995,13 +3939,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>343</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="D57" s="11">
         <v>17.04</v>
@@ -4015,13 +3959,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="D58" s="11">
         <v>16.47</v>
@@ -4035,13 +3979,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>345</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="D59" s="11">
         <v>17.900000000000002</v>
@@ -4055,13 +3999,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>346</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="D60" s="11">
         <v>17.88</v>
@@ -4075,13 +4019,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>347</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>737</v>
+        <v>682</v>
       </c>
       <c r="D61" s="11">
         <v>17.04</v>
@@ -4095,13 +4039,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>348</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>738</v>
+        <v>683</v>
       </c>
       <c r="D62" s="11">
         <v>16.47</v>
@@ -4115,13 +4059,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>349</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>739</v>
+        <v>684</v>
       </c>
       <c r="D63" s="11">
         <v>16.47</v>
@@ -4135,13 +4079,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>794</v>
+        <v>607</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>740</v>
+        <v>685</v>
       </c>
       <c r="D64" s="11">
         <v>17.04</v>
@@ -4155,13 +4099,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>786</v>
+        <v>599</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>351</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="D65" s="11">
         <v>16.47</v>
@@ -4175,13 +4119,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>783</v>
+        <v>596</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>352</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>742</v>
+        <v>687</v>
       </c>
       <c r="D66" s="11">
         <v>17</v>
@@ -4195,13 +4139,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>788</v>
+        <v>601</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>353</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>743</v>
+        <v>688</v>
       </c>
       <c r="D67" s="11">
         <v>17.900000000000002</v>
@@ -4215,13 +4159,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>788</v>
+        <v>601</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>354</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>744</v>
+        <v>689</v>
       </c>
       <c r="D68" s="11">
         <v>17.900000000000002</v>
@@ -4235,13 +4179,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>788</v>
+        <v>601</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>355</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="D69" s="11">
         <v>17.04</v>
@@ -4255,13 +4199,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>785</v>
+        <v>598</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>356</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>746</v>
+        <v>691</v>
       </c>
       <c r="D70" s="11">
         <v>16.47</v>
@@ -4275,13 +4219,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>789</v>
+        <v>602</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>357</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>747</v>
+        <v>692</v>
       </c>
       <c r="D71" s="11">
         <v>17.04</v>
@@ -4295,13 +4239,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>792</v>
+        <v>605</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="D72" s="11">
         <v>10.5</v>
@@ -4315,13 +4259,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>792</v>
+        <v>605</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>359</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>748</v>
+        <v>694</v>
       </c>
       <c r="D73" s="11">
         <v>9.66</v>
@@ -4335,13 +4279,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>782</v>
+        <v>595</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>360</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>599</v>
+        <v>695</v>
       </c>
       <c r="D74" s="11">
         <v>10</v>
@@ -4355,13 +4299,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>782</v>
+        <v>595</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>749</v>
+        <v>696</v>
       </c>
       <c r="D75" s="11">
         <v>10</v>
@@ -4375,13 +4319,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>768</v>
+        <v>581</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>362</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>750</v>
+        <v>697</v>
       </c>
       <c r="D76" s="11">
         <v>6.05</v>
@@ -4395,13 +4339,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>363</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="D77" s="11">
         <v>12.64</v>
@@ -4415,13 +4359,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>364</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="D78" s="11">
         <v>13.75</v>
@@ -4435,13 +4379,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>365</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="D79" s="11">
         <v>12.64</v>
@@ -4455,13 +4399,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>366</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="D80" s="11">
         <v>12.64</v>
@@ -4475,13 +4419,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>616</v>
+      <c r="C81" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="D81" s="11">
         <v>12.64</v>
@@ -4495,13 +4439,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>617</v>
+      <c r="C82" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="D82" s="11">
         <v>12.64</v>
@@ -4515,13 +4459,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>618</v>
+      <c r="C83" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="D83" s="11">
         <v>12.64</v>
@@ -4535,13 +4479,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>619</v>
+      <c r="C84" s="4" t="s">
+        <v>705</v>
       </c>
       <c r="D84" s="11">
         <v>12.64</v>
@@ -4555,13 +4499,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>620</v>
+      <c r="C85" s="4" t="s">
+        <v>706</v>
       </c>
       <c r="D85" s="11">
         <v>10.5</v>
@@ -4575,13 +4519,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>621</v>
+      <c r="C86" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="D86" s="11">
         <v>10.5</v>
@@ -4595,13 +4539,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>622</v>
+      <c r="C87" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="D87" s="11">
         <v>12.64</v>
@@ -4615,13 +4559,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>623</v>
+      <c r="C88" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="D88" s="11">
         <v>12.64</v>
@@ -4635,13 +4579,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>624</v>
+      <c r="C89" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="D89" s="11">
         <v>10.5</v>
@@ -4655,13 +4599,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>625</v>
+      <c r="C90" s="4" t="s">
+        <v>711</v>
       </c>
       <c r="D90" s="11">
         <v>12.64</v>
@@ -4675,13 +4619,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>626</v>
+      <c r="C91" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="D91" s="11">
         <v>12.64</v>
@@ -4695,13 +4639,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>627</v>
+      <c r="C92" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="D92" s="11">
         <v>12.64</v>
@@ -4715,13 +4659,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>628</v>
+      <c r="C93" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="D93" s="11">
         <v>12.64</v>
@@ -4735,13 +4679,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>629</v>
+      <c r="C94" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="D94" s="11">
         <v>12.64</v>
@@ -4755,13 +4699,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>630</v>
+      <c r="C95" s="4" t="s">
+        <v>715</v>
       </c>
       <c r="D95" s="11">
         <v>12.64</v>
@@ -4775,13 +4719,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>631</v>
+      <c r="C96" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="D96" s="11">
         <v>12.64</v>
@@ -4795,13 +4739,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>632</v>
+      <c r="C97" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="D97" s="11">
         <v>12.64</v>
@@ -4815,13 +4759,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>633</v>
+      <c r="C98" s="4" t="s">
+        <v>716</v>
       </c>
       <c r="D98" s="11">
         <v>12.64</v>
@@ -4835,13 +4779,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>634</v>
+      <c r="C99" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="D99" s="11">
         <v>12.64</v>
@@ -4855,13 +4799,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>635</v>
+      <c r="C100" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="D100" s="11">
         <v>12.64</v>
@@ -4875,13 +4819,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>636</v>
+      <c r="C101" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="D101" s="11">
         <v>12.64</v>
@@ -4895,13 +4839,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>636</v>
+      <c r="C102" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="D102" s="11">
         <v>10.4</v>
@@ -4915,13 +4859,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>637</v>
+      <c r="C103" s="4" t="s">
+        <v>719</v>
       </c>
       <c r="D103" s="11">
         <v>12.64</v>
@@ -4935,13 +4879,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>638</v>
+      <c r="C104" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="D104" s="11">
         <v>12.64</v>
@@ -4955,13 +4899,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>639</v>
+      <c r="C105" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="D105" s="11">
         <v>10.47</v>
@@ -4975,13 +4919,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>640</v>
+      <c r="C106" s="4" t="s">
+        <v>716</v>
       </c>
       <c r="D106" s="11">
         <v>12.64</v>
@@ -4995,13 +4939,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>641</v>
+      <c r="C107" s="4" t="s">
+        <v>721</v>
       </c>
       <c r="D107" s="11">
         <v>12.64</v>
@@ -5015,13 +4959,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>642</v>
+      <c r="C108" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="D108" s="11">
         <v>12.64</v>
@@ -5035,13 +4979,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>643</v>
+      <c r="C109" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="D109" s="11">
         <v>12.64</v>
@@ -5055,13 +4999,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>644</v>
+      <c r="C110" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="D110" s="11">
         <v>12.64</v>
@@ -5075,13 +5019,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>645</v>
+      <c r="C111" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="D111" s="11">
         <v>12.64</v>
@@ -5095,13 +5039,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>646</v>
+      <c r="C112" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="D112" s="11">
         <v>13.75</v>
@@ -5115,13 +5059,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>647</v>
+      <c r="C113" s="4" t="s">
+        <v>723</v>
       </c>
       <c r="D113" s="11">
         <v>12.64</v>
@@ -5135,13 +5079,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>648</v>
+      <c r="C114" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="D114" s="11">
         <v>13.08</v>
@@ -5155,13 +5099,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>649</v>
+      <c r="C115" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="D115" s="11">
         <v>13.08</v>
@@ -5175,13 +5119,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>650</v>
+      <c r="C116" s="4" t="s">
+        <v>726</v>
       </c>
       <c r="D116" s="11">
         <v>13.75</v>
@@ -5195,13 +5139,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>770</v>
+        <v>583</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>771</v>
+        <v>584</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="D117" s="11">
         <v>10.47</v>
@@ -5215,13 +5159,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>774</v>
+        <v>587</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>726</v>
+        <v>574</v>
       </c>
       <c r="D118" s="11">
         <v>12.64</v>
@@ -5235,13 +5179,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>769</v>
+        <v>582</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>652</v>
+        <v>574</v>
       </c>
       <c r="D119" s="11">
         <v>12.64</v>
@@ -5255,13 +5199,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>772</v>
+        <v>585</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>653</v>
+        <v>574</v>
       </c>
       <c r="D120" s="11">
         <v>13.1</v>
@@ -5275,13 +5219,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>773</v>
+        <v>586</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>405</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>654</v>
+        <v>574</v>
       </c>
       <c r="D121" s="11">
         <v>12.64</v>
@@ -5295,13 +5239,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>790</v>
+        <v>603</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>727</v>
+        <v>574</v>
       </c>
       <c r="D122" s="11">
         <v>12.64</v>
@@ -5315,13 +5259,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>761</v>
+        <v>575</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="D123" s="11">
         <v>12.64</v>
@@ -5335,13 +5279,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>767</v>
+        <v>580</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="D124" s="11">
         <v>12.64</v>
@@ -5355,13 +5299,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>765</v>
+        <v>579</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>657</v>
+        <v>574</v>
       </c>
       <c r="D125" s="11">
         <v>13.75</v>
@@ -5375,13 +5319,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>764</v>
+        <v>578</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>658</v>
+        <v>574</v>
       </c>
       <c r="D126" s="11">
         <v>12.64</v>
@@ -5395,13 +5339,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>762</v>
+        <v>576</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>659</v>
+        <v>574</v>
       </c>
       <c r="D127" s="11">
         <v>13.75</v>
@@ -5415,13 +5359,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>763</v>
+        <v>577</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="D128" s="11">
         <v>12.64</v>
@@ -5435,13 +5379,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="D129" s="11">
         <v>16.899999999999999</v>
@@ -5455,13 +5399,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>661</v>
+        <v>728</v>
       </c>
       <c r="D130" s="11">
         <v>16.899999999999999</v>
@@ -5475,13 +5419,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>662</v>
+        <v>729</v>
       </c>
       <c r="D131" s="11">
         <v>18.350000000000001</v>
@@ -5495,13 +5439,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>663</v>
+        <v>730</v>
       </c>
       <c r="D132" s="11">
         <v>16.899999999999999</v>
@@ -5515,13 +5459,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>664</v>
+        <v>731</v>
       </c>
       <c r="D133" s="11">
         <v>18.350000000000001</v>
@@ -5535,13 +5479,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
       <c r="D134" s="11">
         <v>13.9</v>
@@ -5555,13 +5499,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>419</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>665</v>
+        <v>732</v>
       </c>
       <c r="D135" s="11">
         <v>16.899999999999999</v>
@@ -5575,13 +5519,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>666</v>
+        <v>733</v>
       </c>
       <c r="D136" s="11">
         <v>16.899999999999999</v>
@@ -5595,13 +5539,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>421</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="D137" s="11">
         <v>16.899999999999999</v>
@@ -5615,13 +5559,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="D138" s="11">
         <v>16.899999999999999</v>
@@ -5635,13 +5579,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>423</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>575</v>
+        <v>636</v>
       </c>
       <c r="D139" s="11">
         <v>16.899999999999999</v>
@@ -5655,13 +5599,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
       <c r="D140" s="11">
         <v>16.899999999999999</v>
@@ -5675,13 +5619,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>425</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>667</v>
+        <v>734</v>
       </c>
       <c r="D141" s="11">
         <v>16.899999999999999</v>
@@ -5695,13 +5639,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>668</v>
+        <v>735</v>
       </c>
       <c r="D142" s="11">
         <v>18.37</v>
@@ -5715,13 +5659,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>427</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>669</v>
+        <v>736</v>
       </c>
       <c r="D143" s="11">
         <v>16.899999999999999</v>
@@ -5735,13 +5679,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="D144" s="11">
         <v>16.899999999999999</v>
@@ -5755,13 +5699,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>670</v>
+        <v>737</v>
       </c>
       <c r="D145" s="11">
         <v>16.899999999999999</v>
@@ -5775,13 +5719,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="D146" s="11">
         <v>16.899999999999999</v>
@@ -5795,13 +5739,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>431</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="D147" s="11">
         <v>16.899999999999999</v>
@@ -5815,13 +5759,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>580</v>
+        <v>641</v>
       </c>
       <c r="D148" s="11">
         <v>16.899999999999999</v>
@@ -5835,13 +5779,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B149" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="D149" s="11">
         <v>16.899999999999999</v>
@@ -5855,13 +5799,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="D150" s="11">
         <v>16.899999999999999</v>
@@ -5875,13 +5819,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>584</v>
+        <v>645</v>
       </c>
       <c r="D151" s="11">
         <v>16.899999999999999</v>
@@ -5895,13 +5839,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>585</v>
+        <v>646</v>
       </c>
       <c r="D152" s="11">
         <v>17.5</v>
@@ -5915,13 +5859,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>437</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="D153" s="11">
         <v>16.899999999999999</v>
@@ -5935,13 +5879,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>438</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="D154" s="11">
         <v>16.899999999999999</v>
@@ -5955,13 +5899,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>439</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="D155" s="11">
         <v>16.899999999999999</v>
@@ -5975,13 +5919,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>440</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>674</v>
+        <v>741</v>
       </c>
       <c r="D156" s="11">
         <v>18.37</v>
@@ -5995,13 +5939,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>441</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="D157" s="11">
         <v>18.37</v>
@@ -6015,13 +5959,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>442</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>676</v>
+        <v>743</v>
       </c>
       <c r="D158" s="11">
         <v>16.899999999999999</v>
@@ -6035,13 +5979,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>443</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>587</v>
+        <v>648</v>
       </c>
       <c r="D159" s="11">
         <v>16.899999999999999</v>
@@ -6055,13 +5999,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>677</v>
+        <v>744</v>
       </c>
       <c r="D160" s="11">
         <v>16.899999999999999</v>
@@ -6075,13 +6019,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>678</v>
+        <v>745</v>
       </c>
       <c r="D161" s="11">
         <v>16.899999999999999</v>
@@ -6095,13 +6039,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>446</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>679</v>
+        <v>746</v>
       </c>
       <c r="D162" s="11">
         <v>16.899999999999999</v>
@@ -6115,13 +6059,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B163" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>680</v>
+        <v>747</v>
       </c>
       <c r="D163" s="11">
         <v>16.899999999999999</v>
@@ -6135,13 +6079,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>448</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>589</v>
+        <v>650</v>
       </c>
       <c r="D164" s="11">
         <v>16.899999999999999</v>
@@ -6155,13 +6099,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>449</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>590</v>
+        <v>651</v>
       </c>
       <c r="D165" s="11">
         <v>16.899999999999999</v>
@@ -6175,13 +6119,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>450</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>681</v>
+        <v>748</v>
       </c>
       <c r="D166" s="11">
         <v>16.899999999999999</v>
@@ -6195,13 +6139,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>451</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>682</v>
+        <v>749</v>
       </c>
       <c r="D167" s="11">
         <v>16.899999999999999</v>
@@ -6215,13 +6159,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>452</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>683</v>
+        <v>750</v>
       </c>
       <c r="D168" s="11">
         <v>16.899999999999999</v>
@@ -6235,13 +6179,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>453</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>591</v>
+        <v>652</v>
       </c>
       <c r="D169" s="11">
         <v>18.37</v>
@@ -6255,13 +6199,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>454</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>684</v>
+        <v>751</v>
       </c>
       <c r="D170" s="11">
         <v>16.899999999999999</v>
@@ -6275,13 +6219,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>455</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>592</v>
+        <v>653</v>
       </c>
       <c r="D171" s="11">
         <v>16.899999999999999</v>
@@ -6295,13 +6239,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>456</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>593</v>
+        <v>654</v>
       </c>
       <c r="D172" s="11">
         <v>17.5</v>
@@ -6315,13 +6259,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>457</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>685</v>
+        <v>752</v>
       </c>
       <c r="D173" s="11">
         <v>16.899999999999999</v>
@@ -6335,13 +6279,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>686</v>
+        <v>753</v>
       </c>
       <c r="D174" s="11">
         <v>17.48</v>
@@ -6355,13 +6299,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>459</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>687</v>
+        <v>754</v>
       </c>
       <c r="D175" s="11">
         <v>17.5</v>
@@ -6375,13 +6319,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="D176" s="11">
         <v>17.5</v>
@@ -6395,13 +6339,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="D177" s="11">
         <v>18.38</v>
@@ -6415,13 +6359,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B178" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>690</v>
+        <v>757</v>
       </c>
       <c r="D178" s="11">
         <v>16.899999999999999</v>
@@ -6435,13 +6379,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>463</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>691</v>
+        <v>758</v>
       </c>
       <c r="D179" s="11">
         <v>17.5</v>
@@ -6455,13 +6399,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>692</v>
+        <v>759</v>
       </c>
       <c r="D180" s="11">
         <v>18.38</v>
@@ -6475,13 +6419,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>465</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>693</v>
+        <v>760</v>
       </c>
       <c r="D181" s="11">
         <v>17.5</v>
@@ -6495,13 +6439,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>694</v>
+        <v>761</v>
       </c>
       <c r="D182" s="11">
         <v>16.899999999999999</v>
@@ -6515,13 +6459,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>467</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>695</v>
+        <v>762</v>
       </c>
       <c r="D183" s="11">
         <v>16.899999999999999</v>
@@ -6535,13 +6479,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="D184" s="11">
         <v>17.5</v>
@@ -6555,13 +6499,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>696</v>
+        <v>763</v>
       </c>
       <c r="D185" s="11">
         <v>16.899999999999999</v>
@@ -6575,13 +6519,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>697</v>
+        <v>764</v>
       </c>
       <c r="D186" s="11">
         <v>16.899999999999999</v>
@@ -6595,13 +6539,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>698</v>
+        <v>765</v>
       </c>
       <c r="D187" s="11">
         <v>17.5</v>
@@ -6615,13 +6559,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>699</v>
+        <v>766</v>
       </c>
       <c r="D188" s="11">
         <v>16.899999999999999</v>
@@ -6635,13 +6579,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>700</v>
+        <v>767</v>
       </c>
       <c r="D189" s="11">
         <v>16.899999999999999</v>
@@ -6655,13 +6599,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>701</v>
+        <v>768</v>
       </c>
       <c r="D190" s="11">
         <v>17.5</v>
@@ -6675,13 +6619,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>702</v>
+        <v>769</v>
       </c>
       <c r="D191" s="11">
         <v>17.48</v>
@@ -6695,13 +6639,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>703</v>
+        <v>770</v>
       </c>
       <c r="D192" s="11">
         <v>18.38</v>
@@ -6715,13 +6659,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>597</v>
+        <v>658</v>
       </c>
       <c r="D193" s="11">
         <v>17.5</v>
@@ -6735,13 +6679,13 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>478</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>704</v>
+        <v>771</v>
       </c>
       <c r="D194" s="11">
         <v>16.899999999999999</v>
@@ -6755,13 +6699,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="D195" s="11">
         <v>17.48</v>
@@ -6775,13 +6719,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>480</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>598</v>
+        <v>659</v>
       </c>
       <c r="D196" s="11">
         <v>17.48</v>
@@ -6795,13 +6739,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
       <c r="D197" s="11">
         <v>18.38</v>
@@ -6815,13 +6759,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="D198" s="11">
         <v>18.38</v>
@@ -6835,13 +6779,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="D199" s="11">
         <v>17.5</v>
@@ -6855,13 +6799,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>706</v>
+        <v>774</v>
       </c>
       <c r="D200" s="11">
         <v>18.37</v>
@@ -6875,13 +6819,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="D201" s="11">
         <v>18.37</v>
@@ -6898,9 +6842,6 @@
       <c r="B202" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>729</v>
-      </c>
       <c r="D202" s="11">
         <v>7.95</v>
       </c>
@@ -6916,9 +6857,6 @@
       <c r="B203" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>707</v>
-      </c>
       <c r="D203" s="11">
         <v>7.95</v>
       </c>
@@ -6934,9 +6872,6 @@
       <c r="B204" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="D204" s="11">
         <v>2.7</v>
       </c>
@@ -6952,9 +6887,6 @@
       <c r="B205" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>709</v>
-      </c>
       <c r="D205" s="11">
         <v>9.2000000000000011</v>
       </c>
@@ -6985,9 +6917,6 @@
       <c r="B207" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="D207" s="11">
         <v>4.8</v>
       </c>
@@ -7003,9 +6932,6 @@
       <c r="B208" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>711</v>
-      </c>
       <c r="D208" s="11">
         <v>1.9000000000000001</v>
       </c>
@@ -7021,9 +6947,6 @@
       <c r="B209" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="D209" s="11">
         <v>4.5</v>
       </c>
@@ -7039,9 +6962,6 @@
       <c r="B210" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>709</v>
-      </c>
       <c r="D210" s="11">
         <v>19.600000000000001</v>
       </c>
@@ -7057,9 +6977,6 @@
       <c r="B211" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="D211" s="11">
         <v>3.9</v>
       </c>
@@ -7120,9 +7037,6 @@
       <c r="B215" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>745</v>
-      </c>
       <c r="D215" s="11">
         <v>12.780000000000001</v>
       </c>
@@ -7138,9 +7052,6 @@
       <c r="B216" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>751</v>
-      </c>
       <c r="D216" s="11">
         <v>11.34</v>
       </c>
@@ -7156,9 +7067,6 @@
       <c r="B217" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="D217" s="11">
         <v>11.9</v>
       </c>
@@ -7189,9 +7097,6 @@
       <c r="B219" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>753</v>
-      </c>
       <c r="D219" s="11">
         <v>11.34</v>
       </c>
@@ -7207,9 +7112,6 @@
       <c r="B220" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="D220" s="11">
         <v>12.34</v>
       </c>
@@ -7225,9 +7127,6 @@
       <c r="B221" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="D221" s="11">
         <v>12.34</v>
       </c>
@@ -7243,9 +7142,6 @@
       <c r="B222" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>755</v>
-      </c>
       <c r="D222" s="11">
         <v>12.780000000000001</v>
       </c>
@@ -7261,9 +7157,6 @@
       <c r="B223" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>757</v>
-      </c>
       <c r="D223" s="11">
         <v>13.42</v>
       </c>
@@ -7309,9 +7202,6 @@
       <c r="B226" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="D226" s="11">
         <v>11.9</v>
       </c>
@@ -7342,9 +7232,6 @@
       <c r="B228" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>758</v>
-      </c>
       <c r="D228" s="11">
         <v>10.9</v>
       </c>
@@ -7360,9 +7247,6 @@
       <c r="B229" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="D229" s="11">
         <v>15.21</v>
       </c>
@@ -7378,9 +7262,6 @@
       <c r="B230" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>713</v>
-      </c>
       <c r="D230" s="11">
         <v>3.0300000000000002</v>
       </c>
@@ -7396,9 +7277,6 @@
       <c r="B231" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="D231" s="11">
         <v>5.18</v>
       </c>
@@ -7414,9 +7292,6 @@
       <c r="B232" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>715</v>
-      </c>
       <c r="D232" s="11">
         <v>9.5500000000000007</v>
       </c>
@@ -7462,9 +7337,6 @@
       <c r="B235" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>759</v>
-      </c>
       <c r="D235" s="11">
         <v>5.67</v>
       </c>
@@ -8080,9 +7952,6 @@
       <c r="B276" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>717</v>
-      </c>
       <c r="D276" s="11">
         <v>12.39</v>
       </c>
@@ -8098,9 +7967,6 @@
       <c r="B277" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="D277" s="11">
         <v>12.39</v>
       </c>
@@ -8116,9 +7982,6 @@
       <c r="B278" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="D278" s="11">
         <v>12.39</v>
       </c>
@@ -8131,13 +7994,13 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B279" s="10" t="s">
         <v>563</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>730</v>
+        <v>572</v>
       </c>
       <c r="D279" s="11">
         <v>18.38</v>
@@ -8151,13 +8014,13 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B280" s="10" t="s">
         <v>564</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>718</v>
+        <v>569</v>
       </c>
       <c r="D280" s="11">
         <v>16.899999999999999</v>
@@ -8171,13 +8034,13 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B281" s="10" t="s">
         <v>565</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>719</v>
+        <v>570</v>
       </c>
       <c r="D281" s="11">
         <v>16.899999999999999</v>
@@ -8191,13 +8054,13 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>566</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>720</v>
+        <v>571</v>
       </c>
       <c r="D282" s="11">
         <v>18.38</v>
@@ -8211,13 +8074,13 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
       <c r="B283" s="10" t="s">
         <v>567</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>749</v>
+        <v>573</v>
       </c>
       <c r="D283" s="11">
         <v>16.899999999999999</v>
@@ -9387,7 +9250,315 @@
       <c r="A450" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B2103E-5688-4358-98B5-3D67646180CB}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>8008</v>
+      </c>
+      <c r="B1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8015</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8029</v>
+      </c>
+      <c r="B9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8030</v>
+      </c>
+      <c r="B15" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8033</v>
+      </c>
+      <c r="B16" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8034</v>
+      </c>
+      <c r="B17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8032</v>
+      </c>
+      <c r="B19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8031</v>
+      </c>
+      <c r="B21" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8031</v>
+      </c>
+      <c r="B22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8013</v>
+      </c>
+      <c r="B24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8011</v>
+      </c>
+      <c r="B29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8025</v>
+      </c>
+      <c r="B30" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8027</v>
+      </c>
+      <c r="B31" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>8028</v>
+      </c>
+      <c r="B32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8026</v>
+      </c>
+      <c r="B33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>